--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804C328-6159-4180-87C6-368FD332FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -713,11 +712,15 @@
     <t>BrNo = ,AND GroupNo &gt;=,AND GroupNo &lt;=,AND LevelFg&gt;=,AND LevelFg&lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>nvarchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -819,7 +822,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,12 +1022,15 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,23 +1121,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1161,23 +1156,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1353,11 +1331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1546,8 +1524,8 @@
       <c r="C12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>30</v>
+      <c r="D12" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>62</v>
@@ -2173,10 +2151,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxTeller.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -714,6 +714,42 @@
   </si>
   <si>
     <t>nvarchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MntDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MntEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後維護時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後維護人員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>站別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,6 +1047,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1023,8 +1062,8 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1332,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1350,10 +1389,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="7" t="s">
         <v>94</v>
       </c>
@@ -1365,8 +1404,8 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1378,10 +1417,10 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="7" t="s">
         <v>111</v>
       </c>
@@ -1391,10 +1430,10 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1402,10 +1441,10 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
@@ -1413,10 +1452,10 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1424,10 +1463,10 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
@@ -1478,6 +1517,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1497,6 +1537,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
+        <f t="shared" ref="A11:A46" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1516,6 +1557,7 @@
     </row>
     <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1524,7 +1566,7 @@
       <c r="C12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="32" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -1535,6 +1577,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1558,6 +1601,7 @@
     </row>
     <row r="14" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1579,6 +1623,7 @@
     </row>
     <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1600,6 +1645,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1619,6 +1665,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1640,6 +1687,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1659,6 +1707,7 @@
     </row>
     <row r="19" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1682,6 +1731,7 @@
     </row>
     <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1701,6 +1751,7 @@
     </row>
     <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -1720,6 +1771,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1739,6 +1791,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -1760,6 +1813,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -1779,6 +1833,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -1798,6 +1853,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -1817,6 +1873,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -1836,6 +1893,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -1857,6 +1915,7 @@
     </row>
     <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1878,6 +1937,7 @@
     </row>
     <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1899,6 +1959,7 @@
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1920,6 +1981,7 @@
     </row>
     <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1941,6 +2003,7 @@
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1962,6 +2025,7 @@
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -1983,6 +2047,7 @@
     </row>
     <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2004,6 +2069,7 @@
     </row>
     <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2025,6 +2091,7 @@
     </row>
     <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2046,6 +2113,7 @@
     </row>
     <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2067,72 +2135,134 @@
     </row>
     <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="31"/>
+    </row>
+    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="18">
+        <v>6</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
-        <v>32</v>
-      </c>
-      <c r="B40" s="16" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E43" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
-        <v>33</v>
-      </c>
-      <c r="B41" s="16" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
-        <v>34</v>
-      </c>
-      <c r="B42" s="16" t="s">
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E45" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
